--- a/biology/Zoologie/Epicrates_crassus/Epicrates_crassus.xlsx
+++ b/biology/Zoologie/Epicrates_crassus/Epicrates_crassus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Epicrates crassus est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epicrates crassus est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Argentine, au Paraguay, en Bolivie et au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Argentine, au Paraguay, en Bolivie et au Brésil.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amaral, 1935 : Collecta herpetologica no centro do Brasil. Memorias do Instituto de Butantan, vol. 9, p. 235-246.
 Cope, 1862 : Catalogues of the Reptiles Obtained during the Explorations of the Parana, Paraguay, Vermejo and Uraguay Rivers, by Capt. Thos. J. Page, U. S. N.; And of Those Procured by Lieut. N. Michler, U. S. Top. Eng., Commander of the Expedition Conducting the Survey of the Atrato River. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 346-359 &amp; 594 (texte intégral).</t>
